--- a/analytics/endpoints/Combined.xlsx
+++ b/analytics/endpoints/Combined.xlsx
@@ -49,7 +49,7 @@
     <t>Rural- Adjusted average household size</t>
   </si>
   <si>
-    <t>Rural- (0.6×Percentage of Total Good)+(0.1×Percentage of Households with Internet)+(0.1×Percentage of Households with Car/Jeep/Van)+(0.1×Percentage of Permanent Structures)+(0.1×Percentage of Households availing Banking Services)</t>
+    <t>Rural- Pincode Prosperity Score</t>
   </si>
   <si>
     <t>Rural- Married Couples per household</t>
@@ -58,7 +58,7 @@
     <t>Urban- Adjusted average household size</t>
   </si>
   <si>
-    <t>Urban- (0.6×Percentage of Total Good)+(0.1×Percentage of Households with Internet)+(0.1×Percentage of Households with Car/Jeep/Van)+(0.1×Percentage of Permanent Structures)+(0.1×Percentage of Households availing Banking Services)</t>
+    <t>Urban- Pincode Prosperity Score</t>
   </si>
   <si>
     <t>Urban- Married Couples per household</t>
@@ -2068,19 +2068,19 @@
         <v>119</v>
       </c>
       <c r="D7">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E7">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F7">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G7">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H7">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I7" t="s">
         <v>144</v>
@@ -2160,19 +2160,19 @@
         <v>119</v>
       </c>
       <c r="D8">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E8">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F8">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G8">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H8">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I8" t="s">
         <v>144</v>
@@ -2252,19 +2252,19 @@
         <v>119</v>
       </c>
       <c r="D9">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E9">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F9">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G9">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H9">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I9" t="s">
         <v>144</v>
@@ -2344,19 +2344,19 @@
         <v>119</v>
       </c>
       <c r="D10">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E10">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F10">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G10">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H10">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I10" t="s">
         <v>144</v>
@@ -2436,19 +2436,19 @@
         <v>119</v>
       </c>
       <c r="D11">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E11">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F11">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G11">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H11">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I11" t="s">
         <v>144</v>
@@ -2528,19 +2528,19 @@
         <v>119</v>
       </c>
       <c r="D12">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E12">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F12">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G12">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H12">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I12" t="s">
         <v>144</v>
@@ -2620,19 +2620,19 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>400202.14</v>
+        <v>321545.14</v>
       </c>
       <c r="E13">
-        <v>213884.29</v>
+        <v>171735.57</v>
       </c>
       <c r="F13">
-        <v>186317.86</v>
+        <v>149809.57</v>
       </c>
       <c r="G13">
-        <v>6.41</v>
+        <v>21.99</v>
       </c>
       <c r="H13">
-        <v>62434.03</v>
+        <v>14622.33</v>
       </c>
       <c r="I13" t="s">
         <v>144</v>
@@ -2712,19 +2712,19 @@
         <v>120</v>
       </c>
       <c r="D14">
-        <v>181144.8</v>
+        <v>119162</v>
       </c>
       <c r="E14">
-        <v>96909.60000000001</v>
+        <v>63839.4</v>
       </c>
       <c r="F14">
-        <v>84235.2</v>
+        <v>55322.6</v>
       </c>
       <c r="G14">
-        <v>4.92</v>
+        <v>5.06</v>
       </c>
       <c r="H14">
-        <v>36818.05</v>
+        <v>23549.8</v>
       </c>
       <c r="I14" t="s">
         <v>145</v>
@@ -2804,19 +2804,19 @@
         <v>120</v>
       </c>
       <c r="D15">
-        <v>181144.8</v>
+        <v>119162</v>
       </c>
       <c r="E15">
-        <v>96909.60000000001</v>
+        <v>63839.4</v>
       </c>
       <c r="F15">
-        <v>84235.2</v>
+        <v>55322.6</v>
       </c>
       <c r="G15">
-        <v>4.92</v>
+        <v>5.06</v>
       </c>
       <c r="H15">
-        <v>36818.05</v>
+        <v>23549.8</v>
       </c>
       <c r="I15" t="s">
         <v>145</v>
@@ -2896,19 +2896,19 @@
         <v>120</v>
       </c>
       <c r="D16">
-        <v>181144.8</v>
+        <v>119162</v>
       </c>
       <c r="E16">
-        <v>96909.60000000001</v>
+        <v>63839.4</v>
       </c>
       <c r="F16">
-        <v>84235.2</v>
+        <v>55322.6</v>
       </c>
       <c r="G16">
-        <v>4.92</v>
+        <v>5.06</v>
       </c>
       <c r="H16">
-        <v>36818.05</v>
+        <v>23549.8</v>
       </c>
       <c r="I16" t="s">
         <v>145</v>
@@ -2988,19 +2988,19 @@
         <v>120</v>
       </c>
       <c r="D17">
-        <v>181144.8</v>
+        <v>119162</v>
       </c>
       <c r="E17">
-        <v>96909.60000000001</v>
+        <v>63839.4</v>
       </c>
       <c r="F17">
-        <v>84235.2</v>
+        <v>55322.6</v>
       </c>
       <c r="G17">
-        <v>4.92</v>
+        <v>5.06</v>
       </c>
       <c r="H17">
-        <v>36818.05</v>
+        <v>23549.8</v>
       </c>
       <c r="I17" t="s">
         <v>145</v>
@@ -3080,19 +3080,19 @@
         <v>120</v>
       </c>
       <c r="D18">
-        <v>181144.8</v>
+        <v>119162</v>
       </c>
       <c r="E18">
-        <v>96909.60000000001</v>
+        <v>63839.4</v>
       </c>
       <c r="F18">
-        <v>84235.2</v>
+        <v>55322.6</v>
       </c>
       <c r="G18">
-        <v>4.92</v>
+        <v>5.06</v>
       </c>
       <c r="H18">
-        <v>36818.05</v>
+        <v>23549.8</v>
       </c>
       <c r="I18" t="s">
         <v>145</v>
@@ -3448,19 +3448,19 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>199362</v>
+        <v>130188</v>
       </c>
       <c r="E22">
-        <v>107480</v>
+        <v>69837</v>
       </c>
       <c r="F22">
-        <v>91882</v>
+        <v>60351</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>38403.54</v>
       </c>
       <c r="I22" t="s">
         <v>147</v>
@@ -3724,19 +3724,19 @@
         <v>124</v>
       </c>
       <c r="D25">
-        <v>862845</v>
+        <v>322931</v>
       </c>
       <c r="E25">
-        <v>455500</v>
+        <v>169409</v>
       </c>
       <c r="F25">
-        <v>407345</v>
+        <v>153522</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>59691.5</v>
       </c>
       <c r="I25" t="s">
         <v>149</v>
@@ -3816,19 +3816,19 @@
         <v>125</v>
       </c>
       <c r="D26">
-        <v>1712876</v>
+        <v>539914</v>
       </c>
       <c r="E26">
-        <v>909361</v>
+        <v>286091</v>
       </c>
       <c r="F26">
-        <v>803515</v>
+        <v>253823</v>
       </c>
       <c r="G26">
         <v>8.199999999999999</v>
       </c>
       <c r="H26">
-        <v>208887.32</v>
+        <v>65843.17</v>
       </c>
       <c r="I26" t="s">
         <v>150</v>
@@ -4184,19 +4184,19 @@
         <v>127</v>
       </c>
       <c r="D30">
-        <v>1314004</v>
+        <v>247906</v>
       </c>
       <c r="E30">
-        <v>698855</v>
+        <v>130769</v>
       </c>
       <c r="F30">
-        <v>615149</v>
+        <v>117137</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>11330.26</v>
       </c>
       <c r="I30" t="s">
         <v>152</v>
@@ -4276,19 +4276,19 @@
         <v>128</v>
       </c>
       <c r="D31">
-        <v>47334.67</v>
+        <v>355366</v>
       </c>
       <c r="E31">
-        <v>25980.67</v>
+        <v>189362</v>
       </c>
       <c r="F31">
-        <v>21354</v>
+        <v>166004</v>
       </c>
       <c r="G31">
-        <v>12.14</v>
+        <v>12.23</v>
       </c>
       <c r="H31">
-        <v>3899.07</v>
+        <v>29056.91</v>
       </c>
       <c r="I31" t="s">
         <v>153</v>
@@ -4368,19 +4368,19 @@
         <v>128</v>
       </c>
       <c r="D32">
-        <v>47334.67</v>
+        <v>355366</v>
       </c>
       <c r="E32">
-        <v>25980.67</v>
+        <v>189362</v>
       </c>
       <c r="F32">
-        <v>21354</v>
+        <v>166004</v>
       </c>
       <c r="G32">
-        <v>12.14</v>
+        <v>12.23</v>
       </c>
       <c r="H32">
-        <v>3899.07</v>
+        <v>29056.91</v>
       </c>
       <c r="I32" t="s">
         <v>153</v>
@@ -4460,19 +4460,19 @@
         <v>128</v>
       </c>
       <c r="D33">
-        <v>47334.67</v>
+        <v>355366</v>
       </c>
       <c r="E33">
-        <v>25980.67</v>
+        <v>189362</v>
       </c>
       <c r="F33">
-        <v>21354</v>
+        <v>166004</v>
       </c>
       <c r="G33">
-        <v>12.14</v>
+        <v>12.23</v>
       </c>
       <c r="H33">
-        <v>3899.07</v>
+        <v>29056.91</v>
       </c>
       <c r="I33" t="s">
         <v>153</v>
@@ -4644,19 +4644,19 @@
         <v>130</v>
       </c>
       <c r="D35">
-        <v>37925.33</v>
+        <v>20460.67</v>
       </c>
       <c r="E35">
-        <v>20911.33</v>
+        <v>11335</v>
       </c>
       <c r="F35">
-        <v>17014</v>
+        <v>9125.67</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3123.77</v>
       </c>
       <c r="I35" t="s">
         <v>155</v>
@@ -4736,19 +4736,19 @@
         <v>130</v>
       </c>
       <c r="D36">
-        <v>37925.33</v>
+        <v>20460.67</v>
       </c>
       <c r="E36">
-        <v>20911.33</v>
+        <v>11335</v>
       </c>
       <c r="F36">
-        <v>17014</v>
+        <v>9125.67</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3123.77</v>
       </c>
       <c r="I36" t="s">
         <v>155</v>
@@ -4828,19 +4828,19 @@
         <v>130</v>
       </c>
       <c r="D37">
-        <v>37925.33</v>
+        <v>20460.67</v>
       </c>
       <c r="E37">
-        <v>20911.33</v>
+        <v>11335</v>
       </c>
       <c r="F37">
-        <v>17014</v>
+        <v>9125.67</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3123.77</v>
       </c>
       <c r="I37" t="s">
         <v>155</v>
@@ -4920,19 +4920,19 @@
         <v>131</v>
       </c>
       <c r="D38">
-        <v>291160</v>
+        <v>26197</v>
       </c>
       <c r="E38">
-        <v>153910.5</v>
+        <v>14364.5</v>
       </c>
       <c r="F38">
-        <v>137249.5</v>
+        <v>11832.5</v>
       </c>
       <c r="G38">
         <v>3.86</v>
       </c>
       <c r="H38">
-        <v>75430.05</v>
+        <v>6786.79</v>
       </c>
       <c r="I38" t="s">
         <v>156</v>
@@ -5012,19 +5012,19 @@
         <v>131</v>
       </c>
       <c r="D39">
-        <v>291160</v>
+        <v>26197</v>
       </c>
       <c r="E39">
-        <v>153910.5</v>
+        <v>14364.5</v>
       </c>
       <c r="F39">
-        <v>137249.5</v>
+        <v>11832.5</v>
       </c>
       <c r="G39">
         <v>3.86</v>
       </c>
       <c r="H39">
-        <v>75430.05</v>
+        <v>6786.79</v>
       </c>
       <c r="I39" t="s">
         <v>156</v>
@@ -5288,19 +5288,19 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>155606</v>
+        <v>87306.5</v>
       </c>
       <c r="E42">
-        <v>82264</v>
+        <v>46492</v>
       </c>
       <c r="F42">
-        <v>73342</v>
+        <v>40814.5</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>38292.32</v>
       </c>
       <c r="I42" t="s">
         <v>157</v>
@@ -5380,19 +5380,19 @@
         <v>133</v>
       </c>
       <c r="D43">
-        <v>155606</v>
+        <v>87306.5</v>
       </c>
       <c r="E43">
-        <v>82264</v>
+        <v>46492</v>
       </c>
       <c r="F43">
-        <v>73342</v>
+        <v>40814.5</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>38292.32</v>
       </c>
       <c r="I43" t="s">
         <v>157</v>
@@ -5472,19 +5472,19 @@
         <v>134</v>
       </c>
       <c r="D44">
-        <v>849887.67</v>
+        <v>45533</v>
       </c>
       <c r="E44">
-        <v>453198.33</v>
+        <v>23848</v>
       </c>
       <c r="F44">
-        <v>396689.33</v>
+        <v>21685</v>
       </c>
       <c r="G44">
         <v>1.69</v>
       </c>
       <c r="H44">
-        <v>502892.11</v>
+        <v>26942.6</v>
       </c>
       <c r="I44" t="s">
         <v>158</v>
@@ -5564,19 +5564,19 @@
         <v>134</v>
       </c>
       <c r="D45">
-        <v>849887.67</v>
+        <v>45533</v>
       </c>
       <c r="E45">
-        <v>453198.33</v>
+        <v>23848</v>
       </c>
       <c r="F45">
-        <v>396689.33</v>
+        <v>21685</v>
       </c>
       <c r="G45">
         <v>1.69</v>
       </c>
       <c r="H45">
-        <v>502892.11</v>
+        <v>26942.6</v>
       </c>
       <c r="I45" t="s">
         <v>158</v>
@@ -5656,19 +5656,19 @@
         <v>134</v>
       </c>
       <c r="D46">
-        <v>849887.67</v>
+        <v>45533</v>
       </c>
       <c r="E46">
-        <v>453198.33</v>
+        <v>23848</v>
       </c>
       <c r="F46">
-        <v>396689.33</v>
+        <v>21685</v>
       </c>
       <c r="G46">
         <v>1.69</v>
       </c>
       <c r="H46">
-        <v>502892.11</v>
+        <v>26942.6</v>
       </c>
       <c r="I46" t="s">
         <v>158</v>
@@ -5932,19 +5932,19 @@
         <v>136</v>
       </c>
       <c r="D49">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E49">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F49">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I49" t="s">
         <v>160</v>
@@ -6024,19 +6024,19 @@
         <v>136</v>
       </c>
       <c r="D50">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E50">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F50">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I50" t="s">
         <v>160</v>
@@ -6116,19 +6116,19 @@
         <v>136</v>
       </c>
       <c r="D51">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E51">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F51">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I51" t="s">
         <v>160</v>
@@ -6208,19 +6208,19 @@
         <v>136</v>
       </c>
       <c r="D52">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E52">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F52">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I52" t="s">
         <v>160</v>
@@ -6300,19 +6300,19 @@
         <v>136</v>
       </c>
       <c r="D53">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E53">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F53">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I53" t="s">
         <v>160</v>
@@ -6392,19 +6392,19 @@
         <v>136</v>
       </c>
       <c r="D54">
-        <v>213514.17</v>
+        <v>80272</v>
       </c>
       <c r="E54">
-        <v>114308.33</v>
+        <v>43205.33</v>
       </c>
       <c r="F54">
-        <v>99205.83</v>
+        <v>37066.67</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>46133.33</v>
       </c>
       <c r="I54" t="s">
         <v>160</v>
@@ -6484,19 +6484,19 @@
         <v>137</v>
       </c>
       <c r="D55">
-        <v>609158.5</v>
+        <v>199863.25</v>
       </c>
       <c r="E55">
-        <v>330847</v>
+        <v>106654.5</v>
       </c>
       <c r="F55">
-        <v>278311.5</v>
+        <v>93208.75</v>
       </c>
       <c r="G55">
-        <v>16.44</v>
+        <v>18.16</v>
       </c>
       <c r="H55">
-        <v>37053.44</v>
+        <v>11005.69</v>
       </c>
       <c r="I55" t="s">
         <v>161</v>
@@ -6576,19 +6576,19 @@
         <v>137</v>
       </c>
       <c r="D56">
-        <v>609158.5</v>
+        <v>199863.25</v>
       </c>
       <c r="E56">
-        <v>330847</v>
+        <v>106654.5</v>
       </c>
       <c r="F56">
-        <v>278311.5</v>
+        <v>93208.75</v>
       </c>
       <c r="G56">
-        <v>16.44</v>
+        <v>18.16</v>
       </c>
       <c r="H56">
-        <v>37053.44</v>
+        <v>11005.69</v>
       </c>
       <c r="I56" t="s">
         <v>161</v>
@@ -6668,19 +6668,19 @@
         <v>137</v>
       </c>
       <c r="D57">
-        <v>609158.5</v>
+        <v>199863.25</v>
       </c>
       <c r="E57">
-        <v>330847</v>
+        <v>106654.5</v>
       </c>
       <c r="F57">
-        <v>278311.5</v>
+        <v>93208.75</v>
       </c>
       <c r="G57">
-        <v>16.44</v>
+        <v>18.16</v>
       </c>
       <c r="H57">
-        <v>37053.44</v>
+        <v>11005.69</v>
       </c>
       <c r="I57" t="s">
         <v>161</v>
@@ -6760,19 +6760,19 @@
         <v>137</v>
       </c>
       <c r="D58">
-        <v>609158.5</v>
+        <v>199863.25</v>
       </c>
       <c r="E58">
-        <v>330847</v>
+        <v>106654.5</v>
       </c>
       <c r="F58">
-        <v>278311.5</v>
+        <v>93208.75</v>
       </c>
       <c r="G58">
-        <v>16.44</v>
+        <v>18.16</v>
       </c>
       <c r="H58">
-        <v>37053.44</v>
+        <v>11005.69</v>
       </c>
       <c r="I58" t="s">
         <v>161</v>
@@ -7772,19 +7772,19 @@
         <v>139</v>
       </c>
       <c r="D69">
-        <v>185561.2</v>
+        <v>57228</v>
       </c>
       <c r="E69">
-        <v>103330</v>
+        <v>32098.8</v>
       </c>
       <c r="F69">
-        <v>82231.2</v>
+        <v>25129.2</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>4235.97</v>
       </c>
       <c r="I69" t="s">
         <v>163</v>
@@ -7864,19 +7864,19 @@
         <v>139</v>
       </c>
       <c r="D70">
-        <v>185561.2</v>
+        <v>57228</v>
       </c>
       <c r="E70">
-        <v>103330</v>
+        <v>32098.8</v>
       </c>
       <c r="F70">
-        <v>82231.2</v>
+        <v>25129.2</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>4235.97</v>
       </c>
       <c r="I70" t="s">
         <v>163</v>
@@ -7956,19 +7956,19 @@
         <v>139</v>
       </c>
       <c r="D71">
-        <v>185561.2</v>
+        <v>57228</v>
       </c>
       <c r="E71">
-        <v>103330</v>
+        <v>32098.8</v>
       </c>
       <c r="F71">
-        <v>82231.2</v>
+        <v>25129.2</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>4235.97</v>
       </c>
       <c r="I71" t="s">
         <v>163</v>
@@ -8048,19 +8048,19 @@
         <v>139</v>
       </c>
       <c r="D72">
-        <v>185561.2</v>
+        <v>57228</v>
       </c>
       <c r="E72">
-        <v>103330</v>
+        <v>32098.8</v>
       </c>
       <c r="F72">
-        <v>82231.2</v>
+        <v>25129.2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>4235.97</v>
       </c>
       <c r="I72" t="s">
         <v>163</v>
@@ -8140,19 +8140,19 @@
         <v>139</v>
       </c>
       <c r="D73">
-        <v>185561.2</v>
+        <v>57228</v>
       </c>
       <c r="E73">
-        <v>103330</v>
+        <v>32098.8</v>
       </c>
       <c r="F73">
-        <v>82231.2</v>
+        <v>25129.2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4235.97</v>
       </c>
       <c r="I73" t="s">
         <v>163</v>
@@ -8232,19 +8232,19 @@
         <v>140</v>
       </c>
       <c r="D74">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E74">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F74">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G74">
         <v>9.16</v>
       </c>
       <c r="H74">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I74" t="s">
         <v>164</v>
@@ -8324,19 +8324,19 @@
         <v>140</v>
       </c>
       <c r="D75">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E75">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F75">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G75">
         <v>9.16</v>
       </c>
       <c r="H75">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I75" t="s">
         <v>164</v>
@@ -8416,19 +8416,19 @@
         <v>140</v>
       </c>
       <c r="D76">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E76">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F76">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G76">
         <v>9.16</v>
       </c>
       <c r="H76">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I76" t="s">
         <v>164</v>
@@ -8508,19 +8508,19 @@
         <v>140</v>
       </c>
       <c r="D77">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E77">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F77">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G77">
         <v>9.16</v>
       </c>
       <c r="H77">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I77" t="s">
         <v>164</v>
@@ -8600,19 +8600,19 @@
         <v>140</v>
       </c>
       <c r="D78">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E78">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F78">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G78">
         <v>9.16</v>
       </c>
       <c r="H78">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I78" t="s">
         <v>164</v>
@@ -8692,19 +8692,19 @@
         <v>140</v>
       </c>
       <c r="D79">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E79">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F79">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G79">
         <v>9.16</v>
       </c>
       <c r="H79">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I79" t="s">
         <v>164</v>
@@ -8784,19 +8784,19 @@
         <v>140</v>
       </c>
       <c r="D80">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E80">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F80">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G80">
         <v>9.16</v>
       </c>
       <c r="H80">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I80" t="s">
         <v>164</v>
@@ -8876,19 +8876,19 @@
         <v>140</v>
       </c>
       <c r="D81">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E81">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F81">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G81">
         <v>9.16</v>
       </c>
       <c r="H81">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I81" t="s">
         <v>164</v>
@@ -8968,19 +8968,19 @@
         <v>140</v>
       </c>
       <c r="D82">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E82">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F82">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G82">
         <v>9.16</v>
       </c>
       <c r="H82">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I82" t="s">
         <v>164</v>
@@ -9060,19 +9060,19 @@
         <v>140</v>
       </c>
       <c r="D83">
-        <v>274412.2</v>
+        <v>64166.6</v>
       </c>
       <c r="E83">
-        <v>147424.7</v>
+        <v>35615.6</v>
       </c>
       <c r="F83">
-        <v>126987.5</v>
+        <v>28551</v>
       </c>
       <c r="G83">
         <v>9.16</v>
       </c>
       <c r="H83">
-        <v>29957.66</v>
+        <v>7005.09</v>
       </c>
       <c r="I83" t="s">
         <v>164</v>
@@ -9520,19 +9520,19 @@
         <v>142</v>
       </c>
       <c r="D88">
-        <v>500212</v>
+        <v>212591.67</v>
       </c>
       <c r="E88">
-        <v>269682.67</v>
+        <v>113241.67</v>
       </c>
       <c r="F88">
-        <v>230529.33</v>
+        <v>99350</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>17340.27</v>
       </c>
       <c r="I88" t="s">
         <v>166</v>
@@ -9612,19 +9612,19 @@
         <v>142</v>
       </c>
       <c r="D89">
-        <v>500212</v>
+        <v>212591.67</v>
       </c>
       <c r="E89">
-        <v>269682.67</v>
+        <v>113241.67</v>
       </c>
       <c r="F89">
-        <v>230529.33</v>
+        <v>99350</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>17340.27</v>
       </c>
       <c r="I89" t="s">
         <v>166</v>
@@ -9704,19 +9704,19 @@
         <v>142</v>
       </c>
       <c r="D90">
-        <v>500212</v>
+        <v>212591.67</v>
       </c>
       <c r="E90">
-        <v>269682.67</v>
+        <v>113241.67</v>
       </c>
       <c r="F90">
-        <v>230529.33</v>
+        <v>99350</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>12.26</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>17340.27</v>
       </c>
       <c r="I90" t="s">
         <v>166</v>
